--- a/parayan/ParayanMaster.xlsx
+++ b/parayan/ParayanMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec8103ae1aad0f0/Parayan2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BDDCD82-2F41-452E-BA8D-18B44C670865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8BDDCD82-2F41-452E-BA8D-18B44C670865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF4A88E-BB96-46DE-970F-A5FA102CF0F9}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="1440" windowWidth="18280" windowHeight="15200" xr2:uid="{A49148DA-0E5A-4041-A457-57D9ED250043}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{A49148DA-0E5A-4041-A457-57D9ED250043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="590">
   <si>
     <t>#</t>
   </si>
@@ -1089,13 +1089,730 @@
   </si>
   <si>
     <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>0239</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1835,12 @@
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1199,7 +1922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1228,6 +1951,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,11 +2295,12 @@
   <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="2" max="2" width="8.7265625" style="12"/>
     <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,7 +2308,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1609,7 +2340,9 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +2368,9 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +2396,9 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1687,7 +2424,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +2454,9 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +2484,9 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1769,7 +2512,9 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="11" t="s">
+        <v>358</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +2540,9 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +2570,9 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +2596,9 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1873,7 +2624,9 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +2650,9 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +2678,9 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1947,7 +2704,9 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>364</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +2732,9 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2760,9 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2788,9 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2051,7 +2816,9 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2844,9 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2103,7 +2872,9 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2129,7 +2900,9 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2155,7 +2928,9 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
@@ -2181,7 +2956,9 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2207,7 +2984,9 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2233,7 +3012,9 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2259,7 +3040,9 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="11" t="s">
+        <v>376</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2285,7 +3068,9 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
@@ -2311,7 +3096,9 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2337,7 +3124,9 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="11" t="s">
+        <v>379</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>65</v>
       </c>
@@ -2363,7 +3152,9 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
@@ -2389,7 +3180,9 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="11" t="s">
+        <v>381</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2415,7 +3208,9 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="11" t="s">
+        <v>382</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2441,7 +3236,9 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="11" t="s">
+        <v>383</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
@@ -2467,7 +3264,9 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="11" t="s">
+        <v>384</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2489,7 +3288,9 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>75</v>
       </c>
@@ -2515,7 +3316,9 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="11" t="s">
+        <v>386</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
@@ -2541,7 +3344,9 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="11" t="s">
+        <v>387</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
@@ -2567,7 +3372,9 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="11" t="s">
+        <v>388</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
@@ -2593,7 +3400,9 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2619,7 +3428,9 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="11" t="s">
+        <v>390</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>84</v>
       </c>
@@ -2645,7 +3456,9 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>86</v>
       </c>
@@ -2667,7 +3480,9 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
@@ -2693,7 +3508,9 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="11" t="s">
+        <v>393</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>89</v>
       </c>
@@ -2717,7 +3534,9 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="11" t="s">
+        <v>394</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +3562,9 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="11" t="s">
+        <v>395</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2769,7 +3590,9 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="11" t="s">
+        <v>396</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2795,7 +3618,9 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
@@ -2821,7 +3646,9 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="11" t="s">
+        <v>398</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2847,7 +3674,9 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2869,7 +3698,9 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="11" t="s">
+        <v>400</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2891,7 +3722,9 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2917,7 +3750,9 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="11" t="s">
+        <v>402</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>102</v>
       </c>
@@ -2943,7 +3778,9 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2969,7 +3806,9 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
@@ -2995,7 +3834,9 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="11" t="s">
+        <v>405</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
@@ -3021,7 +3862,9 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
@@ -3047,7 +3890,9 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>110</v>
       </c>
@@ -3073,7 +3918,9 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="11" t="s">
+        <v>408</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>111</v>
       </c>
@@ -3099,7 +3946,9 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>113</v>
       </c>
@@ -3125,7 +3974,9 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="11" t="s">
+        <v>410</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>114</v>
       </c>
@@ -3151,7 +4002,9 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="11" t="s">
+        <v>411</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>116</v>
       </c>
@@ -3177,7 +4030,9 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="11" t="s">
+        <v>412</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>118</v>
       </c>
@@ -3203,7 +4058,9 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="11" t="s">
+        <v>413</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>119</v>
       </c>
@@ -3229,7 +4086,9 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>121</v>
       </c>
@@ -3255,7 +4114,9 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
@@ -3281,7 +4142,9 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>124</v>
       </c>
@@ -3305,7 +4168,9 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="11" t="s">
+        <v>417</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>125</v>
       </c>
@@ -3331,7 +4196,9 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="11" t="s">
+        <v>418</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>127</v>
       </c>
@@ -3357,7 +4224,9 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="11" t="s">
+        <v>419</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>128</v>
       </c>
@@ -3383,7 +4252,9 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>130</v>
       </c>
@@ -3409,7 +4280,9 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>132</v>
       </c>
@@ -3435,7 +4308,9 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>133</v>
       </c>
@@ -3461,7 +4336,9 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
       </c>
@@ -3487,7 +4364,9 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>135</v>
       </c>
@@ -3513,7 +4392,9 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>137</v>
       </c>
@@ -3539,7 +4420,9 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="11" t="s">
+        <v>426</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>138</v>
       </c>
@@ -3565,7 +4448,9 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="11" t="s">
+        <v>427</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>139</v>
       </c>
@@ -3591,7 +4476,9 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>141</v>
       </c>
@@ -3617,7 +4504,9 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="11" t="s">
+        <v>429</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>143</v>
       </c>
@@ -3643,7 +4532,9 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
@@ -3669,7 +4560,9 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>146</v>
       </c>
@@ -3695,7 +4588,9 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,7 +4616,9 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>148</v>
       </c>
@@ -3747,7 +4644,9 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>150</v>
       </c>
@@ -3773,7 +4672,9 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>151</v>
       </c>
@@ -3799,7 +4700,9 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>152</v>
       </c>
@@ -3825,7 +4728,9 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>153</v>
       </c>
@@ -3851,7 +4756,9 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="11" t="s">
+        <v>438</v>
+      </c>
       <c r="C89" s="5" t="s">
         <v>154</v>
       </c>
@@ -3875,7 +4782,9 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>155</v>
       </c>
@@ -3901,7 +4810,9 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>156</v>
       </c>
@@ -3927,7 +4838,9 @@
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>157</v>
       </c>
@@ -3953,7 +4866,9 @@
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>159</v>
       </c>
@@ -3979,7 +4894,9 @@
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>161</v>
       </c>
@@ -4005,7 +4922,9 @@
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="11" t="s">
+        <v>444</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>162</v>
       </c>
@@ -4031,7 +4950,9 @@
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="3"/>
+      <c r="B96" s="11" t="s">
+        <v>445</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>164</v>
       </c>
@@ -4057,7 +4978,9 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>166</v>
       </c>
@@ -4083,7 +5006,9 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>168</v>
       </c>
@@ -4105,7 +5030,9 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>169</v>
       </c>
@@ -4127,7 +5054,9 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>170</v>
       </c>
@@ -4149,7 +5078,9 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="11" t="s">
+        <v>450</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>171</v>
       </c>
@@ -4175,7 +5106,9 @@
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>173</v>
       </c>
@@ -4201,7 +5134,9 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="11" t="s">
+        <v>452</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>174</v>
       </c>
@@ -4223,7 +5158,9 @@
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="11" t="s">
+        <v>453</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>175</v>
       </c>
@@ -4245,7 +5182,9 @@
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="11" t="s">
+        <v>454</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>176</v>
       </c>
@@ -4271,7 +5210,9 @@
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="11" t="s">
+        <v>455</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>178</v>
       </c>
@@ -4297,7 +5238,9 @@
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="11" t="s">
+        <v>456</v>
+      </c>
       <c r="C107" s="5" t="s">
         <v>180</v>
       </c>
@@ -4317,7 +5260,9 @@
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>181</v>
       </c>
@@ -4343,7 +5288,9 @@
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="11" t="s">
+        <v>458</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>182</v>
       </c>
@@ -4369,7 +5316,9 @@
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="11" t="s">
+        <v>459</v>
+      </c>
       <c r="C110" s="5" t="s">
         <v>183</v>
       </c>
@@ -4393,7 +5342,9 @@
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="11" t="s">
+        <v>460</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>185</v>
       </c>
@@ -4419,7 +5370,9 @@
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="11" t="s">
+        <v>461</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>187</v>
       </c>
@@ -4445,7 +5398,9 @@
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>188</v>
       </c>
@@ -4471,7 +5426,9 @@
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="11" t="s">
+        <v>463</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>189</v>
       </c>
@@ -4497,7 +5454,9 @@
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="11" t="s">
+        <v>464</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>191</v>
       </c>
@@ -4523,7 +5482,9 @@
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="C116" s="5" t="s">
         <v>192</v>
       </c>
@@ -4547,7 +5508,9 @@
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="3"/>
+      <c r="B117" s="11" t="s">
+        <v>466</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>193</v>
       </c>
@@ -4573,7 +5536,9 @@
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="3"/>
+      <c r="B118" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>195</v>
       </c>
@@ -4599,7 +5564,9 @@
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="C119" s="5" t="s">
         <v>197</v>
       </c>
@@ -4623,7 +5590,9 @@
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="3"/>
+      <c r="B120" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>199</v>
       </c>
@@ -4649,7 +5618,9 @@
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="3"/>
+      <c r="B121" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>200</v>
       </c>
@@ -4675,7 +5646,9 @@
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="3"/>
+      <c r="B122" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>202</v>
       </c>
@@ -4701,7 +5674,9 @@
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>203</v>
       </c>
@@ -4727,7 +5702,9 @@
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>204</v>
       </c>
@@ -4753,7 +5730,9 @@
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="3"/>
+      <c r="B125" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>195</v>
       </c>
@@ -4779,7 +5758,9 @@
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>205</v>
       </c>
@@ -4801,7 +5782,9 @@
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="11" t="s">
+        <v>476</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>206</v>
       </c>
@@ -4823,7 +5806,9 @@
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="11" t="s">
+        <v>477</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>207</v>
       </c>
@@ -4845,7 +5830,9 @@
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>208</v>
       </c>
@@ -4871,7 +5858,9 @@
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="3"/>
+      <c r="B130" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>209</v>
       </c>
@@ -4897,7 +5886,9 @@
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="11" t="s">
+        <v>480</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>210</v>
       </c>
@@ -4923,7 +5914,9 @@
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="3"/>
+      <c r="B132" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>211</v>
       </c>
@@ -4949,7 +5942,9 @@
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="11" t="s">
+        <v>482</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>212</v>
       </c>
@@ -4973,7 +5968,9 @@
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="3"/>
+      <c r="B134" s="11" t="s">
+        <v>483</v>
+      </c>
       <c r="C134" s="5" t="s">
         <v>213</v>
       </c>
@@ -4993,7 +5990,9 @@
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="3"/>
+      <c r="B135" s="11" t="s">
+        <v>484</v>
+      </c>
       <c r="C135" s="5" t="s">
         <v>214</v>
       </c>
@@ -5013,7 +6012,9 @@
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="3"/>
+      <c r="B136" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="C136" s="5" t="s">
         <v>215</v>
       </c>
@@ -5033,7 +6034,9 @@
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="11" t="s">
+        <v>486</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>216</v>
       </c>
@@ -5055,7 +6058,9 @@
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>217</v>
       </c>
@@ -5077,7 +6082,9 @@
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="11" t="s">
+        <v>488</v>
+      </c>
       <c r="C139" s="5" t="s">
         <v>218</v>
       </c>
@@ -5097,7 +6104,9 @@
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="11" t="s">
+        <v>489</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>219</v>
       </c>
@@ -5119,7 +6128,9 @@
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="11" t="s">
+        <v>490</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>220</v>
       </c>
@@ -5141,7 +6152,9 @@
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="3"/>
+      <c r="B142" s="11" t="s">
+        <v>491</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>221</v>
       </c>
@@ -5163,7 +6176,9 @@
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="3"/>
+      <c r="B143" s="11" t="s">
+        <v>492</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>222</v>
       </c>
@@ -5189,7 +6204,9 @@
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="11" t="s">
+        <v>493</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>224</v>
       </c>
@@ -5215,7 +6232,9 @@
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="3"/>
+      <c r="B145" s="11" t="s">
+        <v>494</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>225</v>
       </c>
@@ -5241,7 +6260,9 @@
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="3"/>
+      <c r="B146" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>227</v>
       </c>
@@ -5267,7 +6288,9 @@
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="3"/>
+      <c r="B147" s="11" t="s">
+        <v>496</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>229</v>
       </c>
@@ -5293,7 +6316,9 @@
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="3"/>
+      <c r="B148" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>231</v>
       </c>
@@ -5319,7 +6344,9 @@
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="3"/>
+      <c r="B149" s="11" t="s">
+        <v>498</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>232</v>
       </c>
@@ -5345,7 +6372,9 @@
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="3"/>
+      <c r="B150" s="11" t="s">
+        <v>499</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>234</v>
       </c>
@@ -5371,7 +6400,9 @@
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="3"/>
+      <c r="B151" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>235</v>
       </c>
@@ -5397,7 +6428,9 @@
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="11" t="s">
+        <v>501</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>236</v>
       </c>
@@ -5423,7 +6456,9 @@
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="11" t="s">
+        <v>502</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>238</v>
       </c>
@@ -5445,7 +6480,9 @@
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="3"/>
+      <c r="B154" s="11" t="s">
+        <v>503</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>239</v>
       </c>
@@ -5467,7 +6504,9 @@
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="3"/>
+      <c r="B155" s="11" t="s">
+        <v>504</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>240</v>
       </c>
@@ -5493,7 +6532,9 @@
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="3"/>
+      <c r="B156" s="11" t="s">
+        <v>505</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>242</v>
       </c>
@@ -5519,7 +6560,9 @@
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="3"/>
+      <c r="B157" s="11" t="s">
+        <v>506</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>243</v>
       </c>
@@ -5545,7 +6588,9 @@
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="3"/>
+      <c r="B158" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="C158" s="8" t="s">
         <v>244</v>
       </c>
@@ -5567,7 +6612,9 @@
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="3"/>
+      <c r="B159" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>245</v>
       </c>
@@ -5593,7 +6640,9 @@
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="3"/>
+      <c r="B160" s="11" t="s">
+        <v>509</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>246</v>
       </c>
@@ -5619,7 +6668,9 @@
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="3"/>
+      <c r="B161" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>248</v>
       </c>
@@ -5645,7 +6696,9 @@
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="3"/>
+      <c r="B162" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>249</v>
       </c>
@@ -5671,7 +6724,9 @@
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="3"/>
+      <c r="B163" s="11" t="s">
+        <v>512</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>250</v>
       </c>
@@ -5697,7 +6752,9 @@
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="3"/>
+      <c r="B164" s="11" t="s">
+        <v>513</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>251</v>
       </c>
@@ -5719,7 +6776,9 @@
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="11" t="s">
+        <v>514</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>252</v>
       </c>
@@ -5745,7 +6804,9 @@
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="3"/>
+      <c r="B166" s="11" t="s">
+        <v>515</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>254</v>
       </c>
@@ -5771,7 +6832,9 @@
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="3"/>
+      <c r="B167" s="11" t="s">
+        <v>516</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>255</v>
       </c>
@@ -5797,7 +6860,9 @@
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="3"/>
+      <c r="B168" s="11" t="s">
+        <v>517</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>257</v>
       </c>
@@ -5823,7 +6888,9 @@
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="3"/>
+      <c r="B169" s="11" t="s">
+        <v>518</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>258</v>
       </c>
@@ -5849,7 +6916,9 @@
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="3"/>
+      <c r="B170" s="11" t="s">
+        <v>519</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>260</v>
       </c>
@@ -5875,7 +6944,9 @@
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="3"/>
+      <c r="B171" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>261</v>
       </c>
@@ -5901,7 +6972,9 @@
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="11" t="s">
+        <v>521</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>263</v>
       </c>
@@ -5927,7 +7000,9 @@
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="3"/>
+      <c r="B173" s="11" t="s">
+        <v>522</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>264</v>
       </c>
@@ -5953,7 +7028,9 @@
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="3"/>
+      <c r="B174" s="11" t="s">
+        <v>523</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>265</v>
       </c>
@@ -5979,7 +7056,9 @@
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="11" t="s">
+        <v>524</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>267</v>
       </c>
@@ -6005,7 +7084,9 @@
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="3"/>
+      <c r="B176" s="11" t="s">
+        <v>525</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>268</v>
       </c>
@@ -6031,7 +7112,9 @@
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="3"/>
+      <c r="B177" s="11" t="s">
+        <v>526</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>270</v>
       </c>
@@ -6057,7 +7140,9 @@
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="3"/>
+      <c r="B178" s="11" t="s">
+        <v>527</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>272</v>
       </c>
@@ -6083,7 +7168,9 @@
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="3"/>
+      <c r="B179" s="11" t="s">
+        <v>528</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>273</v>
       </c>
@@ -6109,7 +7196,9 @@
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="3"/>
+      <c r="B180" s="11" t="s">
+        <v>529</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>274</v>
       </c>
@@ -6135,7 +7224,9 @@
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="3"/>
+      <c r="B181" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>276</v>
       </c>
@@ -6161,7 +7252,9 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="3"/>
+      <c r="B182" s="11" t="s">
+        <v>531</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>277</v>
       </c>
@@ -6187,7 +7280,9 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="3"/>
+      <c r="B183" s="11" t="s">
+        <v>532</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>278</v>
       </c>
@@ -6209,7 +7304,9 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="3"/>
+      <c r="B184" s="11" t="s">
+        <v>533</v>
+      </c>
       <c r="C184" s="5" t="s">
         <v>279</v>
       </c>
@@ -6229,7 +7326,9 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="11" t="s">
+        <v>534</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>280</v>
       </c>
@@ -6255,7 +7354,9 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="3"/>
+      <c r="B186" s="11" t="s">
+        <v>535</v>
+      </c>
       <c r="C186" s="1" t="s">
         <v>282</v>
       </c>
@@ -6277,7 +7378,9 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="3"/>
+      <c r="B187" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>283</v>
       </c>
@@ -6303,7 +7406,9 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="3"/>
+      <c r="B188" s="11" t="s">
+        <v>537</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>285</v>
       </c>
@@ -6329,7 +7434,9 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B189" s="11" t="s">
+        <v>538</v>
+      </c>
       <c r="C189" s="1" t="s">
         <v>287</v>
       </c>
@@ -6355,7 +7462,9 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="3"/>
+      <c r="B190" s="11" t="s">
+        <v>539</v>
+      </c>
       <c r="C190" s="1" t="s">
         <v>289</v>
       </c>
@@ -6381,7 +7490,9 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="3"/>
+      <c r="B191" s="11" t="s">
+        <v>540</v>
+      </c>
       <c r="C191" s="1" t="s">
         <v>291</v>
       </c>
@@ -6407,7 +7518,9 @@
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="3"/>
+      <c r="B192" s="11" t="s">
+        <v>541</v>
+      </c>
       <c r="C192" s="1" t="s">
         <v>293</v>
       </c>
@@ -6433,7 +7546,9 @@
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="3"/>
+      <c r="B193" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="C193" s="1" t="s">
         <v>294</v>
       </c>
@@ -6459,7 +7574,9 @@
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="3"/>
+      <c r="B194" s="11" t="s">
+        <v>543</v>
+      </c>
       <c r="C194" s="1" t="s">
         <v>295</v>
       </c>
@@ -6481,7 +7598,9 @@
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="3"/>
+      <c r="B195" s="11" t="s">
+        <v>544</v>
+      </c>
       <c r="C195" s="1" t="s">
         <v>296</v>
       </c>
@@ -6507,7 +7626,9 @@
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="3"/>
+      <c r="B196" s="11" t="s">
+        <v>545</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>297</v>
       </c>
@@ -6533,7 +7654,9 @@
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="3"/>
+      <c r="B197" s="11" t="s">
+        <v>546</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>299</v>
       </c>
@@ -6555,7 +7678,9 @@
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="3"/>
+      <c r="B198" s="11" t="s">
+        <v>547</v>
+      </c>
       <c r="C198" s="1" t="s">
         <v>300</v>
       </c>
@@ -6581,7 +7706,9 @@
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="3"/>
+      <c r="B199" s="11" t="s">
+        <v>548</v>
+      </c>
       <c r="C199" s="1" t="s">
         <v>301</v>
       </c>
@@ -6607,7 +7734,9 @@
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="3"/>
+      <c r="B200" s="11" t="s">
+        <v>549</v>
+      </c>
       <c r="C200" s="1" t="s">
         <v>302</v>
       </c>
@@ -6633,7 +7762,9 @@
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="3"/>
+      <c r="B201" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="C201" s="7" t="s">
         <v>303</v>
       </c>
@@ -6655,7 +7786,9 @@
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="3"/>
+      <c r="B202" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="C202" s="1" t="s">
         <v>304</v>
       </c>
@@ -6681,7 +7814,9 @@
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="3"/>
+      <c r="B203" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="C203" s="1" t="s">
         <v>305</v>
       </c>
@@ -6707,7 +7842,9 @@
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="3"/>
+      <c r="B204" s="11" t="s">
+        <v>553</v>
+      </c>
       <c r="C204" s="1" t="s">
         <v>306</v>
       </c>
@@ -6733,7 +7870,9 @@
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="3"/>
+      <c r="B205" s="11" t="s">
+        <v>554</v>
+      </c>
       <c r="C205" s="5" t="s">
         <v>307</v>
       </c>
@@ -6757,7 +7896,9 @@
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="3"/>
+      <c r="B206" s="11" t="s">
+        <v>555</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>308</v>
       </c>
@@ -6783,7 +7924,9 @@
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207" s="11" t="s">
+        <v>556</v>
+      </c>
       <c r="C207" s="1" t="s">
         <v>309</v>
       </c>
@@ -6809,7 +7952,9 @@
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="3"/>
+      <c r="B208" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>310</v>
       </c>
@@ -6835,7 +7980,9 @@
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="3"/>
+      <c r="B209" s="11" t="s">
+        <v>558</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>311</v>
       </c>
@@ -6861,7 +8008,9 @@
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="3"/>
+      <c r="B210" s="11" t="s">
+        <v>559</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>312</v>
       </c>
@@ -6887,7 +8036,9 @@
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="11" t="s">
+        <v>560</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>313</v>
       </c>
@@ -6913,7 +8064,9 @@
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212" s="11" t="s">
+        <v>561</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>315</v>
       </c>
@@ -6939,7 +8092,9 @@
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="3"/>
+      <c r="B213" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="C213" s="1" t="s">
         <v>316</v>
       </c>
@@ -6961,7 +8116,9 @@
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="3"/>
+      <c r="B214" s="11" t="s">
+        <v>563</v>
+      </c>
       <c r="C214" s="5" t="s">
         <v>317</v>
       </c>
@@ -6981,7 +8138,9 @@
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="3"/>
+      <c r="B215" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>318</v>
       </c>
@@ -7007,7 +8166,9 @@
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="3"/>
+      <c r="B216" s="11" t="s">
+        <v>565</v>
+      </c>
       <c r="C216" s="5" t="s">
         <v>319</v>
       </c>
@@ -7031,7 +8192,9 @@
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217" s="11" t="s">
+        <v>566</v>
+      </c>
       <c r="C217" s="5" t="s">
         <v>321</v>
       </c>
@@ -7055,7 +8218,9 @@
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="3"/>
+      <c r="B218" s="11" t="s">
+        <v>567</v>
+      </c>
       <c r="C218" s="1" t="s">
         <v>322</v>
       </c>
@@ -7081,7 +8246,9 @@
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="3"/>
+      <c r="B219" s="11" t="s">
+        <v>568</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>324</v>
       </c>
@@ -7107,7 +8274,9 @@
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="3"/>
+      <c r="B220" s="11" t="s">
+        <v>569</v>
+      </c>
       <c r="C220" s="1" t="s">
         <v>325</v>
       </c>
@@ -7129,7 +8298,9 @@
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221" s="11" t="s">
+        <v>570</v>
+      </c>
       <c r="C221" s="5" t="s">
         <v>326</v>
       </c>
@@ -7149,7 +8320,9 @@
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="3"/>
+      <c r="B222" s="11" t="s">
+        <v>571</v>
+      </c>
       <c r="C222" s="1" t="s">
         <v>327</v>
       </c>
@@ -7171,7 +8344,9 @@
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="3"/>
+      <c r="B223" s="11" t="s">
+        <v>572</v>
+      </c>
       <c r="C223" s="1" t="s">
         <v>328</v>
       </c>
@@ -7193,7 +8368,9 @@
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="3"/>
+      <c r="B224" s="11" t="s">
+        <v>573</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>329</v>
       </c>
@@ -7215,7 +8392,9 @@
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="3"/>
+      <c r="B225" s="11" t="s">
+        <v>574</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>330</v>
       </c>
@@ -7237,7 +8416,9 @@
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="3"/>
+      <c r="B226" s="11" t="s">
+        <v>575</v>
+      </c>
       <c r="C226" s="1" t="s">
         <v>331</v>
       </c>
@@ -7263,7 +8444,9 @@
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="3"/>
+      <c r="B227" s="11" t="s">
+        <v>576</v>
+      </c>
       <c r="C227" s="1" t="s">
         <v>332</v>
       </c>
@@ -7289,7 +8472,9 @@
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="11" t="s">
+        <v>577</v>
+      </c>
       <c r="C228" s="1" t="s">
         <v>333</v>
       </c>
@@ -7315,7 +8500,9 @@
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229" s="11" t="s">
+        <v>578</v>
+      </c>
       <c r="C229" s="1" t="s">
         <v>334</v>
       </c>
@@ -7341,7 +8528,9 @@
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="3"/>
+      <c r="B230" s="11" t="s">
+        <v>579</v>
+      </c>
       <c r="C230" s="1" t="s">
         <v>335</v>
       </c>
@@ -7367,7 +8556,9 @@
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231" s="11" t="s">
+        <v>580</v>
+      </c>
       <c r="C231" s="1" t="s">
         <v>337</v>
       </c>
@@ -7393,7 +8584,9 @@
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" s="3"/>
+      <c r="B232" s="11" t="s">
+        <v>581</v>
+      </c>
       <c r="C232" s="1" t="s">
         <v>338</v>
       </c>
@@ -7419,7 +8612,9 @@
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233" s="11" t="s">
+        <v>582</v>
+      </c>
       <c r="C233" s="1" t="s">
         <v>339</v>
       </c>
@@ -7445,7 +8640,9 @@
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234" s="11" t="s">
+        <v>583</v>
+      </c>
       <c r="C234" s="1" t="s">
         <v>340</v>
       </c>
@@ -7471,7 +8668,9 @@
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235" s="11" t="s">
+        <v>584</v>
+      </c>
       <c r="C235" s="1" t="s">
         <v>341</v>
       </c>
@@ -7497,7 +8696,9 @@
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="3"/>
+      <c r="B236" s="11" t="s">
+        <v>585</v>
+      </c>
       <c r="C236" s="1" t="s">
         <v>342</v>
       </c>
@@ -7519,7 +8720,9 @@
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="11" t="s">
+        <v>586</v>
+      </c>
       <c r="C237" s="1" t="s">
         <v>343</v>
       </c>
@@ -7541,7 +8744,9 @@
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="3"/>
+      <c r="B238" s="11" t="s">
+        <v>587</v>
+      </c>
       <c r="C238" s="1" t="s">
         <v>344</v>
       </c>
@@ -7563,7 +8768,9 @@
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="11" t="s">
+        <v>588</v>
+      </c>
       <c r="C239" s="1" t="s">
         <v>345</v>
       </c>
@@ -7589,7 +8796,9 @@
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="3"/>
+      <c r="B240" s="11" t="s">
+        <v>589</v>
+      </c>
       <c r="C240" s="1" t="s">
         <v>347</v>
       </c>
@@ -7616,6 +8825,7 @@
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="C158:D158"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>